--- a/现金流量表/688560.xlsx
+++ b/现金流量表/688560.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>004</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>52524058.99</v>
+        <v>32188406.89</v>
       </c>
       <c r="P2" t="n">
-        <v>248.9172347745</v>
+        <v>64.03901129979999</v>
       </c>
       <c r="Q2" t="n">
-        <v>266182971.82</v>
+        <v>453038220.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1261.4700874909</v>
+        <v>901.3220139646</v>
       </c>
       <c r="S2" t="n">
-        <v>22534272.56</v>
+        <v>33412052.48</v>
       </c>
       <c r="T2" t="n">
-        <v>106.7923713656</v>
+        <v>66.4734608839</v>
       </c>
       <c r="U2" t="n">
-        <v>-27112290.21</v>
+        <v>-45935252.32</v>
       </c>
       <c r="V2" t="n">
-        <v>-128.4880954985</v>
+        <v>-91.3884353591</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>27112290.21</v>
+        <v>45935252.32</v>
       </c>
       <c r="Z2" t="n">
-        <v>128.4880954985</v>
+        <v>91.3884353591</v>
       </c>
       <c r="AA2" t="n">
-        <v>-6035650.01</v>
+        <v>-34276699.99</v>
       </c>
       <c r="AB2" t="n">
-        <v>-28.6036026051</v>
+        <v>-68.1936818272</v>
       </c>
       <c r="AC2" t="n">
-        <v>21101013.37</v>
+        <v>-50263747.42</v>
       </c>
       <c r="AD2" t="n">
-        <v>142.7405266799</v>
+        <v>15.9828137696</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/688560.xlsx
+++ b/现金流量表/688560.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,57 +739,61 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>32188406.89</v>
+        <v>48974613.19</v>
       </c>
       <c r="P2" t="n">
-        <v>64.03901129979999</v>
+        <v>2223.9547823804</v>
       </c>
       <c r="Q2" t="n">
-        <v>453038220.54</v>
+        <v>563045537.88</v>
       </c>
       <c r="R2" t="n">
-        <v>901.3220139646</v>
+        <v>25568.1001870957</v>
       </c>
       <c r="S2" t="n">
-        <v>33412052.48</v>
+        <v>42437054.07</v>
       </c>
       <c r="T2" t="n">
-        <v>66.4734608839</v>
+        <v>1927.0818736836</v>
       </c>
       <c r="U2" t="n">
-        <v>-45935252.32</v>
+        <v>-31574601.33</v>
       </c>
       <c r="V2" t="n">
-        <v>-91.3884353591</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-1433.8139916937</v>
+      </c>
+      <c r="W2" t="n">
+        <v>391931.51</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17.7977506968</v>
+      </c>
       <c r="Y2" t="n">
-        <v>45935252.32</v>
+        <v>33093883.27</v>
       </c>
       <c r="Z2" t="n">
-        <v>91.3884353591</v>
+        <v>1502.8051304933</v>
       </c>
       <c r="AA2" t="n">
-        <v>-34276699.99</v>
+        <v>-21991899.44</v>
       </c>
       <c r="AB2" t="n">
-        <v>-68.1936818272</v>
+        <v>-998.6600556389</v>
       </c>
       <c r="AC2" t="n">
-        <v>-50263747.42</v>
+        <v>-2202140.69</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.9828137696</v>
+        <v>-105.4257568981</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/688560.xlsx
+++ b/现金流量表/688560.xlsx
@@ -744,56 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>48974613.19</v>
+        <v>139608187.69</v>
       </c>
       <c r="P2" t="n">
-        <v>2223.9547823804</v>
+        <v>1323.1237634968</v>
       </c>
       <c r="Q2" t="n">
-        <v>563045537.88</v>
+        <v>691610981.8099999</v>
       </c>
       <c r="R2" t="n">
-        <v>25568.1001870957</v>
+        <v>6554.6794945874</v>
       </c>
       <c r="S2" t="n">
-        <v>42437054.07</v>
+        <v>46252355.07</v>
       </c>
       <c r="T2" t="n">
-        <v>1927.0818736836</v>
+        <v>438.3524428144</v>
       </c>
       <c r="U2" t="n">
-        <v>-31574601.33</v>
+        <v>-84728304.8</v>
       </c>
       <c r="V2" t="n">
-        <v>-1433.8139916937</v>
-      </c>
-      <c r="W2" t="n">
-        <v>391931.51</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17.7977506968</v>
-      </c>
+        <v>-803.0047189683</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>33093883.27</v>
+        <v>85102852.41</v>
       </c>
       <c r="Z2" t="n">
-        <v>1502.8051304933</v>
+        <v>806.5544595068</v>
       </c>
       <c r="AA2" t="n">
-        <v>-21991899.44</v>
+        <v>-47463516.61</v>
       </c>
       <c r="AB2" t="n">
-        <v>-998.6600556389</v>
+        <v>-449.8311149577</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2202140.69</v>
+        <v>10551408.08</v>
       </c>
       <c r="AD2" t="n">
-        <v>-105.4257568981</v>
+        <v>579.1432322156001</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/688560.xlsx
+++ b/现金流量表/688560.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>139608187.69</v>
+        <v>52524058.99</v>
       </c>
       <c r="P2" t="n">
-        <v>1323.1237634968</v>
+        <v>248.9172347745</v>
       </c>
       <c r="Q2" t="n">
-        <v>691610981.8099999</v>
+        <v>266182971.82</v>
       </c>
       <c r="R2" t="n">
-        <v>6554.6794945874</v>
+        <v>1261.4700874909</v>
       </c>
       <c r="S2" t="n">
-        <v>46252355.07</v>
+        <v>22534272.56</v>
       </c>
       <c r="T2" t="n">
-        <v>438.3524428144</v>
+        <v>106.7923713656</v>
       </c>
       <c r="U2" t="n">
-        <v>-84728304.8</v>
+        <v>-27112290.21</v>
       </c>
       <c r="V2" t="n">
-        <v>-803.0047189683</v>
+        <v>-128.4880954985</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>85102852.41</v>
+        <v>27112290.21</v>
       </c>
       <c r="Z2" t="n">
-        <v>806.5544595068</v>
+        <v>128.4880954985</v>
       </c>
       <c r="AA2" t="n">
-        <v>-47463516.61</v>
+        <v>-6035650.01</v>
       </c>
       <c r="AB2" t="n">
-        <v>-449.8311149577</v>
+        <v>-28.6036026051</v>
       </c>
       <c r="AC2" t="n">
-        <v>10551408.08</v>
+        <v>21101013.37</v>
       </c>
       <c r="AD2" t="n">
-        <v>579.1432322156001</v>
+        <v>142.7405266799</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
